--- a/quest/validacao_produto.xlsx
+++ b/quest/validacao_produto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin\Documents\Laboratória\Bloco Programação Básica\projeto_redesocial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sin\Documents\Laboratória\Bloco Programação Básica\projeto_redesocial\redesocial\quest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D7A85-E99D-415C-8D62-F82A72029797}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2A125-E85C-4AB2-82CB-F59776158D43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -248,15 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,6 +313,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E2D9-4B8B-9034-08B441D34179}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -325,6 +333,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E2D9-4B8B-9034-08B441D34179}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -340,6 +353,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E2D9-4B8B-9034-08B441D34179}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -512,6 +530,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-21F2-4846-8C1E-EB698F5C2B43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -527,6 +550,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-21F2-4846-8C1E-EB698F5C2B43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -542,6 +570,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-21F2-4846-8C1E-EB698F5C2B43}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -714,6 +747,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-673D-4D78-9E0B-C4DD1220DB16}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -729,6 +767,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-673D-4D78-9E0B-C4DD1220DB16}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -744,6 +787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-673D-4D78-9E0B-C4DD1220DB16}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -916,6 +964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3BA9-4660-A234-AB2CB88C0566}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -931,6 +984,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3BA9-4660-A234-AB2CB88C0566}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -946,6 +1004,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3BA9-4660-A234-AB2CB88C0566}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5826,7 +5889,7 @@
       <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6078,10 +6141,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C25">
@@ -6102,10 +6165,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C26">
@@ -6126,10 +6189,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27">
@@ -6175,26 +6238,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8542CD1-5261-493A-9ACE-8D7F3DC6DC45}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="K2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6202,11 +6266,11 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="K3" s="5">
+      <c r="D3" s="5"/>
+      <c r="K3" s="4">
         <v>22</v>
       </c>
     </row>
@@ -6214,11 +6278,11 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="K4" s="5">
+      <c r="D4" s="5"/>
+      <c r="K4" s="4">
         <v>23</v>
       </c>
     </row>
@@ -6226,11 +6290,11 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="K5" s="5">
+      <c r="D5" s="5"/>
+      <c r="K5" s="4">
         <v>13</v>
       </c>
     </row>
@@ -6238,11 +6302,11 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="K6" s="5">
+      <c r="D6" s="5"/>
+      <c r="K6" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6250,18 +6314,18 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="K7" s="5">
+      <c r="D7" s="5"/>
+      <c r="K7" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -6372,7 +6436,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6380,10 +6444,10 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6391,10 +6455,10 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>14</v>
       </c>
     </row>
@@ -6402,10 +6466,10 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>17</v>
       </c>
     </row>
@@ -6413,10 +6477,10 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6424,10 +6488,10 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>19</v>
       </c>
     </row>
@@ -6435,10 +6499,10 @@
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>7</v>
       </c>
     </row>
@@ -6446,10 +6510,10 @@
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>12</v>
       </c>
     </row>
@@ -6457,10 +6521,10 @@
       <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6468,10 +6532,10 @@
       <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6479,22 +6543,94 @@
       <c r="B39">
         <v>10</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K39" s="5">
-        <v>1</v>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
